--- a/final/tests/4.3.3_test_set.xlsx
+++ b/final/tests/4.3.3_test_set.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gagefleming/university_of_london/current_courses/agile_software_projects/cm2020/final/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1499E3D4-30A4-1C48-BD60-46371A421557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168B466D-19C5-9944-B5D8-1678F0291431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4600" yWindow="22100" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4.3.3 (Feb 2nd)" sheetId="8" r:id="rId1"/>
+    <sheet name="4.3.3 (Jan 27th)" sheetId="8" r:id="rId1"/>
     <sheet name="4.3.3 (EMPTY)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -288,18 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -312,8 +300,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,95 +700,95 @@
   <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="10" customWidth="1"/>
-    <col min="6" max="7" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.6640625" style="10"/>
+    <col min="1" max="1" width="3.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
@@ -800,57 +797,57 @@
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -897,7 +894,7 @@
       <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="2">
@@ -912,7 +909,7 @@
       <c r="K10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -929,7 +926,7 @@
       <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="2"/>
@@ -939,61 +936,61 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="9" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1002,57 +999,57 @@
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
@@ -1099,7 +1096,7 @@
       <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="2">
@@ -1114,7 +1111,7 @@
       <c r="K20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1131,7 +1128,7 @@
       <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H21" s="2">
@@ -1146,7 +1143,7 @@
       <c r="K21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1155,7 +1152,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="1"/>
       <c r="H22" s="2">
         <v>3</v>
       </c>
@@ -1168,28 +1165,41 @@
       <c r="K22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="H23" s="8" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="C16:E16"/>
@@ -1198,19 +1208,6 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1226,90 +1223,90 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.6640625" style="10"/>
+    <col min="1" max="1" width="3.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.6640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1318,57 +1315,57 @@
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="2:12" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
@@ -1451,61 +1448,61 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="9" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1514,57 +1511,57 @@
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="H17" s="8" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="H18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:12" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
@@ -1675,23 +1672,32 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="H23" s="8" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
@@ -1702,16 +1708,7 @@
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
     <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final/tests/4.3.3_test_set.xlsx
+++ b/final/tests/4.3.3_test_set.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gagefleming/university_of_london/current_courses/agile_software_projects/cm2020/final/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168B466D-19C5-9944-B5D8-1678F0291431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46CFD70-7A90-5045-8365-39B094A2350B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="22100" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.3.3 (Jan 27th)" sheetId="8" r:id="rId1"/>
-    <sheet name="4.3.3 (EMPTY)" sheetId="3" r:id="rId2"/>
+    <sheet name="4.3.3 (Mar 2nd)" sheetId="9" r:id="rId2"/>
+    <sheet name="4.3.3 (EMPTY)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="55">
   <si>
     <t>Objective and Priority</t>
   </si>
@@ -303,14 +304,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,9 +402,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -441,7 +442,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -547,7 +548,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -689,7 +690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -699,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1A9C19-9F36-CD48-B0C4-C8183375AEF4}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -727,20 +728,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="7"/>
@@ -797,7 +798,7 @@
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="9"/>
@@ -808,7 +809,7 @@
       <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="9"/>
@@ -999,7 +1000,7 @@
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="9"/>
@@ -1010,7 +1011,7 @@
       <c r="H16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J16" s="9"/>
@@ -1187,19 +1188,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I15:K15"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="C16:E16"/>
@@ -1208,12 +1196,543 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="H18:L18"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DAE804-AA4E-B744-AF1F-37E20883E1BF}">
+  <dimension ref="B1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="2:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="56" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="42" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="2:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="42" x14ac:dyDescent="0.15">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="56" x14ac:dyDescent="0.15">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA13C14-0D9E-43FF-87BC-0D55745E5A2B}">
   <dimension ref="B1:L23"/>
   <sheetViews>
@@ -1245,20 +1764,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="7"/>
@@ -1315,7 +1834,7 @@
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="9"/>
@@ -1326,7 +1845,7 @@
       <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="9"/>
@@ -1511,7 +2030,7 @@
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="9"/>
@@ -1522,7 +2041,7 @@
       <c r="H16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J16" s="9"/>
@@ -1689,15 +2208,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
@@ -1710,6 +2220,15 @@
     <mergeCell ref="H18:L18"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
